--- a/Data/EC/NIT-9015538426.xlsx
+++ b/Data/EC/NIT-9015538426.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{354F2626-2091-48AA-81B4-598673BECCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FADDE604-4055-4640-8F19-218C17CC8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E3204F28-E463-4B2F-90BD-C46348A95079}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{72CD27B3-137E-4D56-930D-BBA2822C4F20}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,61 +80,61 @@
     <t>ERICK ENRIQUE VALENZUELA ESCOBAR</t>
   </si>
   <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
     <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
   </si>
   <si>
     <t>1019056000</t>
@@ -554,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE5208D-4C41-999E-323A-791CDB28F853}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D25ED6-D3C2-20BC-194F-65DDDC93C9D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9883EB8A-1504-49FC-BAA7-3C5082FB81A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666670E5-1664-4C1D-BBFA-9E479E668A08}">
   <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1103,10 +1103,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>44200</v>
+        <v>41253</v>
       </c>
       <c r="G17" s="18">
         <v>1105000</v>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>44200</v>
@@ -1149,7 +1149,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>44200</v>
@@ -1172,7 +1172,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>44200</v>
@@ -1195,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>44200</v>
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>44200</v>
@@ -1241,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>44200</v>
@@ -1264,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>44200</v>
@@ -1287,7 +1287,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>44200</v>
@@ -1310,7 +1310,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>44200</v>
@@ -1333,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>44200</v>
@@ -1356,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>44200</v>
@@ -1379,7 +1379,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>44200</v>
@@ -1402,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>44200</v>
@@ -1425,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>44200</v>
@@ -1448,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>44200</v>
@@ -1471,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>44200</v>
@@ -1494,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>44200</v>
@@ -1517,7 +1517,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>44200</v>
@@ -1540,10 +1540,10 @@
         <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
-        <v>41253</v>
+        <v>44200</v>
       </c>
       <c r="G36" s="18">
         <v>1105000</v>
@@ -1563,7 +1563,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F37" s="24">
         <v>130667</v>

--- a/Data/EC/NIT-9015538426.xlsx
+++ b/Data/EC/NIT-9015538426.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FADDE604-4055-4640-8F19-218C17CC8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E2A7BA9-EACA-46A9-801C-F6234BC88B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{72CD27B3-137E-4D56-930D-BBA2822C4F20}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4665853-CC5A-469E-8CBD-00A1307E2160}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,61 +80,61 @@
     <t>ERICK ENRIQUE VALENZUELA ESCOBAR</t>
   </si>
   <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
     <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
   </si>
   <si>
     <t>1019056000</t>
@@ -239,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -252,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -454,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D25ED6-D3C2-20BC-194F-65DDDC93C9D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B85DCA3-BDEF-D091-A2D3-ECE135F7743E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666670E5-1664-4C1D-BBFA-9E479E668A08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B748947E-18AB-4542-B664-76C2C39A3F66}">
   <dimension ref="B2:J43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1103,10 +1103,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>41253</v>
+        <v>44200</v>
       </c>
       <c r="G17" s="18">
         <v>1105000</v>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>44200</v>
@@ -1149,7 +1149,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>44200</v>
@@ -1172,7 +1172,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>44200</v>
@@ -1195,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>44200</v>
@@ -1218,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>44200</v>
@@ -1241,7 +1241,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>44200</v>
@@ -1264,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>44200</v>
@@ -1287,7 +1287,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>44200</v>
@@ -1310,7 +1310,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>44200</v>
@@ -1333,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>44200</v>
@@ -1356,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
         <v>44200</v>
@@ -1379,7 +1379,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>44200</v>
@@ -1402,7 +1402,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>44200</v>
@@ -1425,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>44200</v>
@@ -1448,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>44200</v>
@@ -1471,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>44200</v>
@@ -1494,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>44200</v>
@@ -1517,7 +1517,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>44200</v>
@@ -1540,10 +1540,10 @@
         <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
-        <v>44200</v>
+        <v>41253</v>
       </c>
       <c r="G36" s="18">
         <v>1105000</v>
@@ -1563,7 +1563,7 @@
         <v>34</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F37" s="24">
         <v>130667</v>
